--- a/ClosedXML.Tests/Resource/Other/PivotTable/Sources/PivotTable-AllSources-input.xlsx
+++ b/ClosedXML.Tests/Resource/Other/PivotTable/Sources/PivotTable-AllSources-input.xlsx
@@ -8,28 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\havli\source\repos\ClosedXML\ClosedXML.Tests\Resource\Other\PivotTable\Sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B39F100C-E2D6-4D1D-970B-6328228E485D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C989D67D-7A97-4897-BBD0-9E58DC579EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10524" yWindow="4236" windowWidth="30960" windowHeight="12120" tabRatio="781" xr2:uid="{511D5D8F-76DE-4F5B-8C4B-E6E3D59723B0}"/>
+    <workbookView xWindow="5364" yWindow="2484" windowWidth="30960" windowHeight="12120" tabRatio="781" xr2:uid="{511D5D8F-76DE-4F5B-8C4B-E6E3D59723B0}"/>
   </bookViews>
   <sheets>
-    <sheet name="External - PT" sheetId="14" r:id="rId1"/>
-    <sheet name="Area Source" sheetId="1" r:id="rId2"/>
-    <sheet name="Area - PT" sheetId="8" r:id="rId3"/>
-    <sheet name="Table Source" sheetId="3" r:id="rId4"/>
-    <sheet name="Table - PT" sheetId="9" r:id="rId5"/>
-    <sheet name="Defined Name Source" sheetId="4" r:id="rId6"/>
-    <sheet name="Defined Name - PT" sheetId="10" r:id="rId7"/>
+    <sheet name="Connection - PT" sheetId="15" r:id="rId1"/>
+    <sheet name="External Workbook - PT" sheetId="14" r:id="rId2"/>
+    <sheet name="Area Source" sheetId="1" r:id="rId3"/>
+    <sheet name="Area - PT" sheetId="8" r:id="rId4"/>
+    <sheet name="Table Source" sheetId="3" r:id="rId5"/>
+    <sheet name="Table - PT" sheetId="9" r:id="rId6"/>
+    <sheet name="Defined Name Source" sheetId="4" r:id="rId7"/>
+    <sheet name="Defined Name - PT" sheetId="10" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="AreaName">'Defined Name Source'!$B$2:$C$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId8"/>
-    <pivotCache cacheId="1" r:id="rId9"/>
-    <pivotCache cacheId="2" r:id="rId10"/>
-    <pivotCache cacheId="7" r:id="rId11"/>
+    <pivotCache cacheId="0" r:id="rId9"/>
+    <pivotCache cacheId="1" r:id="rId10"/>
+    <pivotCache cacheId="2" r:id="rId11"/>
+    <pivotCache cacheId="3" r:id="rId12"/>
+    <pivotCache cacheId="5" r:id="rId13"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -48,8 +50,16 @@
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{C541E7EC-78CE-4C7D-AB77-2894390EA7AF}" sourceFile="C:\Users\havli\source\repos\ClosedXML\ClosedXML.Tests\Resource\Other\PivotTable\Sources\PivotTable-AllSources-external-data.xlsx" keepAlive="1" name="PivotTable-AllSources-external-data" type="5" refreshedVersion="8" background="1">
+    <dbPr connection="Provider=Microsoft.ACE.OLEDB.12.0;User ID=Admin;Data Source=C:\Users\havli\source\repos\ClosedXML\ClosedXML.Tests\Resource\Other\PivotTable\Sources\PivotTable-AllSources-external-data.xlsx;Mode=Share Deny Write;Extended Properties=&quot;HDR=YES;&quot;;Jet OLEDB:System database=&quot;&quot;;Jet OLEDB:Registry Path=&quot;&quot;;Jet OLEDB:Engine Type=37;Jet OLEDB:Database Locking Mode=0;Jet OLEDB:Global Partial Bulk Ops=2;Jet OLEDB:Global Bulk Transactions=1;Jet OLEDB:New Database Password=&quot;&quot;;Jet OLEDB:Create System Database=False;Jet OLEDB:Encrypt Database=False;Jet OLEDB:Don't Copy Locale on Compact=False;Jet OLEDB:Compact Without Replica Repair=False;Jet OLEDB:SFP=False;Jet OLEDB:Support Complex Data=False;Jet OLEDB:Bypass UserInfo Validation=False;Jet OLEDB:Limited DB Caching=False;Jet OLEDB:Bypass ChoiceField Validation=False" command="Sheet1$" commandType="3"/>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
   <si>
     <t>Name</t>
   </si>
@@ -58,6 +68,21 @@
   </si>
   <si>
     <t>Cake</t>
+  </si>
+  <si>
+    <t>Pivot table that is using a connection to another workbook as a source of pivot cache. Connection uses absolute path, so it is necessary to update the path (Pivot Table Analyze - Change Data Source - Connection Properties - Definition).</t>
+  </si>
+  <si>
+    <t>Pivot table that uses area in 'Area Source' sheet as a source of data for the pivot cache.</t>
+  </si>
+  <si>
+    <t>Pivot table that uses external workbook reference as a source of data for the pivot cache.</t>
+  </si>
+  <si>
+    <t>Pivot table that uses a table named 'Table1' as a source of data for the pivot cache.</t>
+  </si>
+  <si>
+    <t>Pivot table that uses a defined name 'AreaName' as a source of data for the pivot cache.</t>
   </si>
 </sst>
 </file>
@@ -315,6 +340,31 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Jan Havlíček" refreshedDate="45640.820318865743" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="2" xr:uid="{08AFD5F3-EF3C-4277-9EC0-BC5F6E36BD65}">
+  <cacheSource type="external" connectionId="1"/>
+  <cacheFields count="2">
+    <cacheField name="Name" numFmtId="0">
+      <sharedItems count="2">
+        <s v="Cake"/>
+        <s v="Muffin"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Value" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="15" maxValue="16" count="2">
+        <n v="15"/>
+        <n v="16"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="1">
   <r>
@@ -355,8 +405,21 @@
 </pivotCacheRecords>
 </file>
 
+<file path=xl/pivotCache/pivotCacheRecords5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="2">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0D4D1264-DB58-4739-9865-48D4C248B3E1}" name="PivotTable1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8B1473DA-4617-411E-B5E1-4F030EF43EB3}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="A3:C20" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="2">
     <pivotField showAll="0"/>
@@ -375,6 +438,25 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0D4D1264-DB58-4739-9865-48D4C248B3E1}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:C20" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="2">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{45F738BB-659D-4398-9BF8-4EF831A42BD4}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C20" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="2">
@@ -393,7 +475,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2B56FD51-7F09-4B25-B8A9-43A4A15B4CB4}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C20" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="2">
@@ -412,7 +494,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{48B2550D-5C8A-4228-91A6-93B51A985389}" name="PivotTable3" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C20" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="2">
@@ -738,15 +820,128 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DF7487B-601B-4CF1-83DA-637CE4ACBFAA}">
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="6"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="6"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="6"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="6"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="6"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="6"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="6"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="6"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="6"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="6"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="4"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="6"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="4"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="6"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="4"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="6"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="4"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="6"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="7"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{157D16F0-CB70-40FE-8801-5E78DDAC6F12}">
-  <dimension ref="A3:C20"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+    </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
@@ -842,7 +1037,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B95AC8F-0A2B-4305-8907-61BCB849A9DA}">
   <dimension ref="D3:E4"/>
   <sheetViews>
@@ -871,16 +1066,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF5682F4-C374-4D89-9ECF-B07973C4759C}">
-  <dimension ref="A3:C20"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+    </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
@@ -976,7 +1174,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A96ED509-A698-481D-9229-D61A1CAE8227}">
   <dimension ref="B2:C3"/>
   <sheetViews>
@@ -1010,16 +1208,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{076680DD-97CF-4D98-B4D1-7E5361715DFA}">
-  <dimension ref="A3:C20"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+    </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
@@ -1115,7 +1316,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{388DAB8D-43FF-4D7B-9586-E2AB978B4CFD}">
   <dimension ref="B2:C3"/>
   <sheetViews>
@@ -1146,16 +1347,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93B5D2A0-EF2B-4557-801E-486063C03CDD}">
-  <dimension ref="A3:C20"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+    </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>

--- a/ClosedXML.Tests/Resource/Other/PivotTable/Sources/PivotTable-AllSources-input.xlsx
+++ b/ClosedXML.Tests/Resource/Other/PivotTable/Sources/PivotTable-AllSources-input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\havli\source\repos\ClosedXML\ClosedXML.Tests\Resource\Other\PivotTable\Sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C989D67D-7A97-4897-BBD0-9E58DC579EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C103D15-3D13-4E6D-8F54-B3C22D3DC05E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5364" yWindow="2484" windowWidth="30960" windowHeight="12120" tabRatio="781" xr2:uid="{511D5D8F-76DE-4F5B-8C4B-E6E3D59723B0}"/>
+    <workbookView xWindow="5364" yWindow="2484" windowWidth="30960" windowHeight="12120" tabRatio="781" firstSheet="1" activeTab="9" xr2:uid="{511D5D8F-76DE-4F5B-8C4B-E6E3D59723B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Connection - PT" sheetId="15" r:id="rId1"/>
@@ -21,17 +21,20 @@
     <sheet name="Table - PT" sheetId="9" r:id="rId6"/>
     <sheet name="Defined Name Source" sheetId="4" r:id="rId7"/>
     <sheet name="Defined Name - PT" sheetId="10" r:id="rId8"/>
+    <sheet name="Scenario" sheetId="16" r:id="rId9"/>
+    <sheet name="Scenario PivotTable" sheetId="17" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="AreaName">'Defined Name Source'!$B$2:$C$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId9"/>
-    <pivotCache cacheId="1" r:id="rId10"/>
-    <pivotCache cacheId="2" r:id="rId11"/>
-    <pivotCache cacheId="3" r:id="rId12"/>
-    <pivotCache cacheId="5" r:id="rId13"/>
+    <pivotCache cacheId="0" r:id="rId11"/>
+    <pivotCache cacheId="1" r:id="rId12"/>
+    <pivotCache cacheId="2" r:id="rId13"/>
+    <pivotCache cacheId="3" r:id="rId14"/>
+    <pivotCache cacheId="4" r:id="rId15"/>
+    <pivotCache cacheId="5" r:id="rId16"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -59,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
   <si>
     <t>Name</t>
   </si>
@@ -83,6 +86,30 @@
   </si>
   <si>
     <t>Pivot table that uses a defined name 'AreaName' as a source of data for the pivot cache.</t>
+  </si>
+  <si>
+    <t>Pie</t>
+  </si>
+  <si>
+    <t>Total with tax</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>$B$5</t>
+  </si>
+  <si>
+    <t>Expensive</t>
+  </si>
+  <si>
+    <t>Original</t>
+  </si>
+  <si>
+    <t>$B$2:$B$3 by</t>
+  </si>
+  <si>
+    <t>(All)</t>
   </si>
 </sst>
 </file>
@@ -228,7 +255,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -239,6 +266,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -365,6 +397,36 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Jan Havlíček" refreshedDate="45640.931218171296" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="2" xr:uid="{9BD42A5F-5A0C-417E-AEDF-DBA25499EC16}">
+  <cacheSource type="scenario"/>
+  <cacheFields count="3">
+    <cacheField name="$B$2:$B$3" numFmtId="0">
+      <sharedItems containsNonDate="0" count="2">
+        <s v="Original"/>
+        <s v="Expensive"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="$B$2:$B$3 by" numFmtId="0">
+      <sharedItems containsNonDate="0" count="1">
+        <s v="Jan Havlíček"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="res $B$5" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsString="0" containsNumber="1" minValue="30.25" maxValue="151.25" count="2">
+        <n v="30.25"/>
+        <n v="151.25"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="1">
   <r>
@@ -419,7 +481,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8B1473DA-4617-411E-B5E1-4F030EF43EB3}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8B1473DA-4617-411E-B5E1-4F030EF43EB3}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="A3:C20" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="2">
     <pivotField showAll="0"/>
@@ -501,6 +563,56 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
   </pivotFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CD5C9CDA-F86E-415A-B8D1-75DC461E852E}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+  <location ref="A3:B5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="3">
+    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
+      <items count="2">
+        <item x="1"/>
+        <item x="0"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="$B$5" fld="2" baseField="0" baseItem="0"/>
+  </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -823,7 +935,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DF7487B-601B-4CF1-83DA-637CE4ACBFAA}">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -921,6 +1033,55 @@
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
       <c r="C20" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECC5C1F4-162A-4495-BD7F-5FACEE21B0F8}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="12">
+        <v>151.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="12">
+        <v>30.25</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1455,4 +1616,54 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBB5288C-1114-45E0-9330-28F95507E82B}">
+  <dimension ref="A2:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <f>(B2+B3)*1.21</f>
+        <v>30.25</v>
+      </c>
+    </row>
+  </sheetData>
+  <scenarios current="0" show="0" sqref="B5">
+    <scenario name="Original" locked="1" count="2" user="Jan Havlíček" comment="Created by Jan Havlíček on 12/14/2024">
+      <inputCells r="B2" val="10"/>
+      <inputCells r="B3" val="15"/>
+    </scenario>
+    <scenario name="Expensive" locked="1" count="2" user="Jan Havlíček" comment="Created by Jan Havlíček on 12/14/2024">
+      <inputCells r="B2" val="50"/>
+      <inputCells r="B3" val="75"/>
+    </scenario>
+  </scenarios>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ClosedXML.Tests/Resource/Other/PivotTable/Sources/PivotTable-AllSources-input.xlsx
+++ b/ClosedXML.Tests/Resource/Other/PivotTable/Sources/PivotTable-AllSources-input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\havli\source\repos\ClosedXML\ClosedXML.Tests\Resource\Other\PivotTable\Sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C103D15-3D13-4E6D-8F54-B3C22D3DC05E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{538143E2-3B8F-4339-B8C8-D3C86837AED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5364" yWindow="2484" windowWidth="30960" windowHeight="12120" tabRatio="781" firstSheet="1" activeTab="9" xr2:uid="{511D5D8F-76DE-4F5B-8C4B-E6E3D59723B0}"/>
+    <workbookView xWindow="5364" yWindow="2484" windowWidth="30960" windowHeight="12120" tabRatio="781" firstSheet="3" activeTab="11" xr2:uid="{511D5D8F-76DE-4F5B-8C4B-E6E3D59723B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Connection - PT" sheetId="15" r:id="rId1"/>
@@ -22,19 +22,22 @@
     <sheet name="Defined Name Source" sheetId="4" r:id="rId7"/>
     <sheet name="Defined Name - PT" sheetId="10" r:id="rId8"/>
     <sheet name="Scenario" sheetId="16" r:id="rId9"/>
-    <sheet name="Scenario PivotTable" sheetId="17" r:id="rId10"/>
+    <sheet name="Scenario - PT" sheetId="17" r:id="rId10"/>
+    <sheet name="Consolidate" sheetId="18" r:id="rId11"/>
+    <sheet name="Consolidate - PT" sheetId="19" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="AreaName">'Defined Name Source'!$B$2:$C$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId11"/>
-    <pivotCache cacheId="1" r:id="rId12"/>
-    <pivotCache cacheId="2" r:id="rId13"/>
-    <pivotCache cacheId="3" r:id="rId14"/>
-    <pivotCache cacheId="4" r:id="rId15"/>
-    <pivotCache cacheId="5" r:id="rId16"/>
+    <pivotCache cacheId="0" r:id="rId13"/>
+    <pivotCache cacheId="1" r:id="rId14"/>
+    <pivotCache cacheId="2" r:id="rId15"/>
+    <pivotCache cacheId="3" r:id="rId16"/>
+    <pivotCache cacheId="4" r:id="rId17"/>
+    <pivotCache cacheId="5" r:id="rId18"/>
+    <pivotCache cacheId="6" r:id="rId19"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -62,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="23">
   <si>
     <t>Name</t>
   </si>
@@ -110,6 +113,27 @@
   </si>
   <si>
     <t>(All)</t>
+  </si>
+  <si>
+    <t>Muffin</t>
+  </si>
+  <si>
+    <t>Tax</t>
+  </si>
+  <si>
+    <t>Sum of Value</t>
+  </si>
+  <si>
+    <t>Column Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Page1</t>
+  </si>
+  <si>
+    <t>Page2</t>
   </si>
 </sst>
 </file>
@@ -427,6 +451,67 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Jan Havlíček" refreshedDate="45641.123992361114" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="3" xr:uid="{C4D000D4-C547-41E9-B0B9-2D56DCDF4F13}">
+  <cacheSource type="consolidation">
+    <consolidation autoPage="0">
+      <pages count="2">
+        <page count="2">
+          <pageItem name="Cakes"/>
+          <pageItem name="Taxes"/>
+        </page>
+        <page count="2">
+          <pageItem name="Cakes"/>
+          <pageItem name="Tax1"/>
+        </page>
+      </pages>
+      <rangeSets count="2">
+        <rangeSet i1="0" i2="0" ref="A1:B3" sheet="Consolidate"/>
+        <rangeSet i1="1" i2="1" ref="D1:E2" sheet="Consolidate"/>
+      </rangeSets>
+    </consolidation>
+  </cacheSource>
+  <cacheFields count="5">
+    <cacheField name="Row" numFmtId="0">
+      <sharedItems count="2">
+        <s v="Cake"/>
+        <s v="Muffin"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Column" numFmtId="0">
+      <sharedItems count="2">
+        <s v="Value"/>
+        <s v="Tax"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Value" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.21" maxValue="25" count="3">
+        <n v="25"/>
+        <n v="17"/>
+        <n v="1.21"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Page1" numFmtId="0">
+      <sharedItems count="2">
+        <s v="Cakes"/>
+        <s v="Taxes"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Page2" numFmtId="0">
+      <sharedItems count="2">
+        <s v="Cakes"/>
+        <s v="Tax1"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="1">
   <r>
@@ -474,6 +559,32 @@
     <x v="0"/>
   </r>
   <r>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="3">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <x v="1"/>
   </r>
@@ -612,6 +723,87 @@
   </pageFields>
   <dataFields count="1">
     <dataField name="$B$5" fld="2" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FEEAA086-841A-475E-91D3-9CEF17819C08}" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A4:D8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="5">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="3" hier="-1"/>
+    <pageField fld="4" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Value" fld="2" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -1043,7 +1235,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECC5C1F4-162A-4495-BD7F-5FACEE21B0F8}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1071,7 +1263,7 @@
       <c r="A4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4">
         <v>151.25</v>
       </c>
     </row>
@@ -1079,8 +1271,158 @@
       <c r="A5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5">
         <v>30.25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9F178DE-BBB7-489C-9228-24C8800DF773}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A4D42AF-FE37-4EC3-9D02-CE3B6F12778F}">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="12">
+        <v>1.21</v>
+      </c>
+      <c r="C6" s="12">
+        <v>25</v>
+      </c>
+      <c r="D6" s="12">
+        <v>26.21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12">
+        <v>17</v>
+      </c>
+      <c r="D7" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="12">
+        <v>1.21</v>
+      </c>
+      <c r="C8" s="12">
+        <v>42</v>
+      </c>
+      <c r="D8" s="12">
+        <v>43.21</v>
       </c>
     </row>
   </sheetData>
